--- a/Code/Results/Cases/Case_9_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.76524602936364</v>
+        <v>12.57516031594627</v>
       </c>
       <c r="C2">
-        <v>7.911877438755536</v>
+        <v>8.038112850948204</v>
       </c>
       <c r="D2">
-        <v>8.45760078743643</v>
+        <v>8.561525884837444</v>
       </c>
       <c r="E2">
-        <v>12.19961593571718</v>
+        <v>12.26558189606493</v>
       </c>
       <c r="F2">
-        <v>22.05406829506788</v>
+        <v>21.66930334273717</v>
       </c>
       <c r="G2">
-        <v>23.06932412519088</v>
+        <v>21.84650583490208</v>
       </c>
       <c r="H2">
-        <v>1.713935196202391</v>
+        <v>1.68150482180133</v>
       </c>
       <c r="I2">
-        <v>2.734813615761877</v>
+        <v>2.638711737635166</v>
       </c>
       <c r="J2">
-        <v>9.294414082957735</v>
+        <v>9.513696314512298</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.108444381049607</v>
+        <v>11.8410559705741</v>
       </c>
       <c r="M2">
-        <v>11.39826406208601</v>
+        <v>8.749112717380122</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.115079079040985</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.41799153536517</v>
       </c>
       <c r="P2">
-        <v>12.58035163391313</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.16560479601917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.49503098800649</v>
+      </c>
+      <c r="S2">
+        <v>14.84966575671461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.93054669548073</v>
+        <v>11.79148431861297</v>
       </c>
       <c r="C3">
-        <v>7.575330640677873</v>
+        <v>7.59378952078482</v>
       </c>
       <c r="D3">
-        <v>8.042349150086705</v>
+        <v>8.137918277337992</v>
       </c>
       <c r="E3">
-        <v>11.64000192779563</v>
+        <v>11.70743651852723</v>
       </c>
       <c r="F3">
-        <v>21.6751889438335</v>
+        <v>21.32869512083191</v>
       </c>
       <c r="G3">
-        <v>22.7492502468941</v>
+        <v>21.61677950770653</v>
       </c>
       <c r="H3">
-        <v>1.911259792648725</v>
+        <v>1.871486310883015</v>
       </c>
       <c r="I3">
-        <v>2.864962459440834</v>
+        <v>2.75392677258051</v>
       </c>
       <c r="J3">
-        <v>9.312818502304507</v>
+        <v>9.510821728488386</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.916437053639826</v>
+        <v>11.99019195180409</v>
       </c>
       <c r="M3">
-        <v>10.74846603381395</v>
+        <v>8.768861434725663</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.92796040053482</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.76934401949366</v>
       </c>
       <c r="P3">
-        <v>12.70253703542469</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.12234786994152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.60468774166848</v>
+      </c>
+      <c r="S3">
+        <v>14.82951717325961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.38437160326146</v>
+        <v>11.27872689575507</v>
       </c>
       <c r="C4">
-        <v>7.363515365589037</v>
+        <v>7.312500359204225</v>
       </c>
       <c r="D4">
-        <v>7.777547165500804</v>
+        <v>7.868028171346081</v>
       </c>
       <c r="E4">
-        <v>11.28260290042209</v>
+        <v>11.35125638303272</v>
       </c>
       <c r="F4">
-        <v>21.44540348898691</v>
+        <v>21.12168290922255</v>
       </c>
       <c r="G4">
-        <v>22.55963099477148</v>
+        <v>21.4841593705278</v>
       </c>
       <c r="H4">
-        <v>2.037199780578895</v>
+        <v>1.992783299794979</v>
       </c>
       <c r="I4">
-        <v>2.948759066729802</v>
+        <v>2.828454521826751</v>
       </c>
       <c r="J4">
-        <v>9.326523534917916</v>
+        <v>9.509918104721887</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.79515399121436</v>
+        <v>12.08423066253037</v>
       </c>
       <c r="M4">
-        <v>10.32801862486845</v>
+        <v>8.798553900824119</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.809827912979383</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.34967805754338</v>
       </c>
       <c r="P4">
-        <v>12.77938285333475</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.10059892761605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.6740647849361</v>
+      </c>
+      <c r="S4">
+        <v>14.82103199896847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.14775190717413</v>
+        <v>11.05633609829822</v>
       </c>
       <c r="C5">
-        <v>7.284255622418533</v>
+        <v>7.204925008968535</v>
       </c>
       <c r="D5">
-        <v>7.668884073403157</v>
+        <v>7.75730568849668</v>
       </c>
       <c r="E5">
-        <v>11.13420193619516</v>
+        <v>11.20343971603718</v>
       </c>
       <c r="F5">
-        <v>21.34686634542923</v>
+        <v>21.03225459793142</v>
       </c>
       <c r="G5">
-        <v>22.47433064528629</v>
+        <v>21.4224038832064</v>
       </c>
       <c r="H5">
-        <v>2.089926931590578</v>
+        <v>2.043576415866291</v>
       </c>
       <c r="I5">
-        <v>2.986789126910426</v>
+        <v>2.863193058149214</v>
       </c>
       <c r="J5">
-        <v>9.331143572044171</v>
+        <v>9.508192640087444</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.744680307668922</v>
+        <v>12.11911717124392</v>
       </c>
       <c r="M5">
-        <v>10.15155446013642</v>
+        <v>8.812911666959785</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.76067929928411</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.17355985838473</v>
       </c>
       <c r="P5">
-        <v>12.81110699937085</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.08896866123583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.7028638236509</v>
+      </c>
+      <c r="S5">
+        <v>14.81461638928362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.10115585332167</v>
+        <v>11.01222566059256</v>
       </c>
       <c r="C6">
-        <v>7.281190032231942</v>
+        <v>7.198069893792781</v>
       </c>
       <c r="D6">
-        <v>7.65267297510166</v>
+        <v>7.740745097476921</v>
       </c>
       <c r="E6">
-        <v>11.11007434021773</v>
+        <v>11.17941557374584</v>
       </c>
       <c r="F6">
-        <v>21.32358704193343</v>
+        <v>21.01051477364108</v>
       </c>
       <c r="G6">
-        <v>22.4482936715284</v>
+        <v>21.40029012677568</v>
       </c>
       <c r="H6">
-        <v>2.098987844401701</v>
+        <v>2.052305171308543</v>
       </c>
       <c r="I6">
-        <v>2.996897204344053</v>
+        <v>2.873428159848913</v>
       </c>
       <c r="J6">
-        <v>9.330041780877389</v>
+        <v>9.505998011303932</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.735962826287262</v>
+        <v>12.11999804600621</v>
       </c>
       <c r="M6">
-        <v>10.12218409394256</v>
+        <v>8.812958305328076</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.752189396923858</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.14425308247139</v>
       </c>
       <c r="P6">
-        <v>12.81634293532853</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.08227493566268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.707698698761</v>
+      </c>
+      <c r="S6">
+        <v>14.80882840521911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.36311031807321</v>
+        <v>11.25455147690405</v>
       </c>
       <c r="C7">
-        <v>7.389850362676544</v>
+        <v>7.336432180798525</v>
       </c>
       <c r="D7">
-        <v>7.781380335064148</v>
+        <v>7.875007333437383</v>
       </c>
       <c r="E7">
-        <v>11.282532209408</v>
+        <v>11.3522969536937</v>
       </c>
       <c r="F7">
-        <v>21.4251667610041</v>
+        <v>21.09030394034374</v>
       </c>
       <c r="G7">
-        <v>22.52591882103174</v>
+        <v>21.52656349866579</v>
       </c>
       <c r="H7">
-        <v>2.038527938079127</v>
+        <v>1.994524473500745</v>
       </c>
       <c r="I7">
-        <v>2.959141786016554</v>
+        <v>2.841023242899936</v>
       </c>
       <c r="J7">
-        <v>9.321393523485492</v>
+        <v>9.472562375811471</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.793701529783366</v>
+        <v>12.06700966567328</v>
       </c>
       <c r="M7">
-        <v>10.3263349061326</v>
+        <v>8.788622620138097</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.807895110084418</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.34430939288625</v>
       </c>
       <c r="P7">
-        <v>12.7797016945563</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.08727024769138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.67471606220346</v>
+      </c>
+      <c r="S7">
+        <v>14.80016701998227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.46230746846044</v>
+        <v>12.2794106983871</v>
       </c>
       <c r="C8">
-        <v>7.831601211832948</v>
+        <v>7.910071986867873</v>
       </c>
       <c r="D8">
-        <v>8.323104221863073</v>
+        <v>8.434150702827349</v>
       </c>
       <c r="E8">
-        <v>12.01201360864673</v>
+        <v>12.08195968944287</v>
       </c>
       <c r="F8">
-        <v>21.89848083070683</v>
+        <v>21.49028987338456</v>
       </c>
       <c r="G8">
-        <v>22.91531640597134</v>
+        <v>21.97309872769533</v>
       </c>
       <c r="H8">
-        <v>1.781763148286337</v>
+        <v>1.748220405046457</v>
       </c>
       <c r="I8">
-        <v>2.791522547344043</v>
+        <v>2.693968443862274</v>
       </c>
       <c r="J8">
-        <v>9.293436371560494</v>
+        <v>9.401125764418337</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.041995810983568</v>
+        <v>11.86261313224003</v>
       </c>
       <c r="M8">
-        <v>11.17954437588075</v>
+        <v>8.730407588681048</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.048705979742833</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.18819620156875</v>
       </c>
       <c r="P8">
-        <v>12.62221253726784</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.13242255316129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.53368781993574</v>
+      </c>
+      <c r="S8">
+        <v>14.79935405987091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.38086784578978</v>
+        <v>14.08022171224383</v>
       </c>
       <c r="C9">
-        <v>8.608507763599601</v>
+        <v>8.931166123399553</v>
       </c>
       <c r="D9">
-        <v>9.294842296969863</v>
+        <v>9.428175849289058</v>
       </c>
       <c r="E9">
-        <v>13.32519163056978</v>
+        <v>13.39361385241745</v>
       </c>
       <c r="F9">
-        <v>22.87838507924071</v>
+        <v>22.36322827099109</v>
       </c>
       <c r="G9">
-        <v>23.78904305831645</v>
+        <v>22.6921323220687</v>
       </c>
       <c r="H9">
-        <v>1.800632661948043</v>
+        <v>1.815935791413514</v>
       </c>
       <c r="I9">
-        <v>2.480944663388886</v>
+        <v>2.54931811660069</v>
       </c>
       <c r="J9">
-        <v>9.26746696651613</v>
+        <v>9.391211374239585</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.501754937779791</v>
+        <v>11.51836019578013</v>
       </c>
       <c r="M9">
-        <v>12.67917983263367</v>
+        <v>8.782406916206375</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.496840452148292</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.6835432112855</v>
       </c>
       <c r="P9">
-        <v>12.32744351856991</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.2835176509694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.27217370740733</v>
+      </c>
+      <c r="S9">
+        <v>14.88101252299665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.6000406240337</v>
+        <v>15.21137504521726</v>
       </c>
       <c r="C10">
-        <v>9.140928809693802</v>
+        <v>9.596823157785508</v>
       </c>
       <c r="D10">
-        <v>9.856005026856781</v>
+        <v>10.01901855946103</v>
       </c>
       <c r="E10">
-        <v>13.98265486459092</v>
+        <v>14.05599515616007</v>
       </c>
       <c r="F10">
-        <v>23.45535472632291</v>
+        <v>22.80580260598325</v>
       </c>
       <c r="G10">
-        <v>24.30689682183351</v>
+        <v>23.53455630647926</v>
       </c>
       <c r="H10">
-        <v>2.102976024297373</v>
+        <v>2.104277314422071</v>
       </c>
       <c r="I10">
-        <v>2.688738111342746</v>
+        <v>2.733145890165244</v>
       </c>
       <c r="J10">
-        <v>9.236187465167816</v>
+        <v>9.192732289671197</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.711806372546122</v>
+        <v>11.23193192586383</v>
       </c>
       <c r="M10">
-        <v>13.65200437422351</v>
+        <v>8.849334139270269</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.697112543192072</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.63629989272017</v>
       </c>
       <c r="P10">
-        <v>12.12324148549029</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.356008778583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.09820918540454</v>
+      </c>
+      <c r="S10">
+        <v>14.85953256486959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.90155751473794</v>
+        <v>15.48352356908614</v>
       </c>
       <c r="C11">
-        <v>9.232119530854382</v>
+        <v>9.644949020848625</v>
       </c>
       <c r="D11">
-        <v>9.241375243015792</v>
+        <v>9.432215185306418</v>
       </c>
       <c r="E11">
-        <v>12.2921136658187</v>
+        <v>12.37162384785417</v>
       </c>
       <c r="F11">
-        <v>22.47225627950801</v>
+        <v>21.71467039455222</v>
       </c>
       <c r="G11">
-        <v>23.29446725511824</v>
+        <v>23.44937575103183</v>
       </c>
       <c r="H11">
-        <v>2.939968810746822</v>
+        <v>2.935897085817802</v>
       </c>
       <c r="I11">
-        <v>2.754773072188903</v>
+        <v>2.791149260702524</v>
       </c>
       <c r="J11">
-        <v>9.021386953428308</v>
+        <v>8.685629552421844</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.921691229034711</v>
+        <v>10.88425419108155</v>
       </c>
       <c r="M11">
-        <v>13.88236321640776</v>
+        <v>8.594795634317487</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.902525175890847</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.82839053137917</v>
       </c>
       <c r="P11">
-        <v>12.07330513427129</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.87448237468687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.08181117060654</v>
+      </c>
+      <c r="S11">
+        <v>14.30578218098155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.92959943386513</v>
+        <v>15.51363794759658</v>
       </c>
       <c r="C12">
-        <v>9.164119762841029</v>
+        <v>9.523901205876761</v>
       </c>
       <c r="D12">
-        <v>8.592839823266871</v>
+        <v>8.791188414885553</v>
       </c>
       <c r="E12">
-        <v>10.75970262073144</v>
+        <v>10.83801467031286</v>
       </c>
       <c r="F12">
-        <v>21.53565525806789</v>
+        <v>20.75601072961582</v>
       </c>
       <c r="G12">
-        <v>22.36013186771149</v>
+        <v>22.96168015997079</v>
       </c>
       <c r="H12">
-        <v>4.182109552781799</v>
+        <v>4.178345335531882</v>
       </c>
       <c r="I12">
-        <v>2.763851444109404</v>
+        <v>2.79752294811755</v>
       </c>
       <c r="J12">
-        <v>8.85195814603348</v>
+        <v>8.436750425907491</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.295033867926556</v>
+        <v>10.68628547717566</v>
       </c>
       <c r="M12">
-        <v>13.87755989651092</v>
+        <v>8.388555000205095</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.276236807805588</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.80555076111693</v>
       </c>
       <c r="P12">
-        <v>12.08168395913896</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.46602836073468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.11032463607375</v>
+      </c>
+      <c r="S12">
+        <v>13.88640585083113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.72940278234141</v>
+        <v>15.34660079036513</v>
       </c>
       <c r="C13">
-        <v>9.003744862588455</v>
+        <v>9.309546288994666</v>
       </c>
       <c r="D13">
-        <v>7.868914676771325</v>
+        <v>8.053379402463884</v>
       </c>
       <c r="E13">
-        <v>9.250531336236932</v>
+        <v>9.320025065715697</v>
       </c>
       <c r="F13">
-        <v>20.54231468501465</v>
+        <v>19.8289239229955</v>
       </c>
       <c r="G13">
-        <v>21.37221006219433</v>
+        <v>21.88958096110164</v>
       </c>
       <c r="H13">
-        <v>5.499180068506406</v>
+        <v>5.49726333270432</v>
       </c>
       <c r="I13">
-        <v>2.735134835259589</v>
+        <v>2.772308634877532</v>
       </c>
       <c r="J13">
-        <v>8.699359681850009</v>
+        <v>8.372002195989209</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.776243381494273</v>
+        <v>10.57027303979165</v>
       </c>
       <c r="M13">
-        <v>13.69272172559258</v>
+        <v>8.202561958398819</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.762390394103806</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.62395788468143</v>
       </c>
       <c r="P13">
-        <v>12.1330031612891</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.06831089482566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.16764013575151</v>
+      </c>
+      <c r="S13">
+        <v>13.54038111539463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.47911576240628</v>
+        <v>15.13387979204253</v>
       </c>
       <c r="C14">
-        <v>8.855352332421091</v>
+        <v>9.122119693593103</v>
       </c>
       <c r="D14">
-        <v>7.322048148864199</v>
+        <v>7.487463964404357</v>
       </c>
       <c r="E14">
-        <v>8.229160682548702</v>
+        <v>8.289519278425548</v>
       </c>
       <c r="F14">
-        <v>19.81655056175781</v>
+        <v>19.18642623694315</v>
       </c>
       <c r="G14">
-        <v>20.6475691274347</v>
+        <v>20.88066139683244</v>
       </c>
       <c r="H14">
-        <v>6.446117079202579</v>
+        <v>6.445588777722381</v>
       </c>
       <c r="I14">
-        <v>2.699351984890134</v>
+        <v>2.742097938398566</v>
       </c>
       <c r="J14">
-        <v>8.599664229087427</v>
+        <v>8.393706676873135</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.494908963641479</v>
+        <v>10.51955320945961</v>
       </c>
       <c r="M14">
-        <v>13.47984852884921</v>
+        <v>8.081492440344233</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.486358392994762</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.4227048915157</v>
       </c>
       <c r="P14">
-        <v>12.18854974555708</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.79308346449943</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.2198306794715</v>
+      </c>
+      <c r="S14">
+        <v>13.32654745005758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.36272076835699</v>
+        <v>15.03301915580461</v>
       </c>
       <c r="C15">
-        <v>8.807910673557096</v>
+        <v>9.064624281003356</v>
       </c>
       <c r="D15">
-        <v>7.173541129003677</v>
+        <v>7.330439513396484</v>
       </c>
       <c r="E15">
-        <v>7.98279903159186</v>
+        <v>8.040276014324176</v>
       </c>
       <c r="F15">
-        <v>19.62355676544472</v>
+        <v>19.02911916560414</v>
       </c>
       <c r="G15">
-        <v>20.45137236747475</v>
+        <v>20.52208021165005</v>
       </c>
       <c r="H15">
-        <v>6.676219102577555</v>
+        <v>6.676219808203598</v>
       </c>
       <c r="I15">
-        <v>2.684063043453082</v>
+        <v>2.730009854989678</v>
       </c>
       <c r="J15">
-        <v>8.577825043425017</v>
+        <v>8.427727450973805</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.43838426128189</v>
+        <v>10.5184770338254</v>
       </c>
       <c r="M15">
-        <v>13.38882827159449</v>
+        <v>8.053676609867887</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.431787447327435</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.33856720294497</v>
       </c>
       <c r="P15">
-        <v>12.21050558981068</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.72530790771954</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.23786867459556</v>
+      </c>
+      <c r="S15">
+        <v>13.2843241360638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.88195985215672</v>
+        <v>14.60727958991928</v>
       </c>
       <c r="C16">
-        <v>8.625567976928954</v>
+        <v>8.868373716749007</v>
       </c>
       <c r="D16">
-        <v>7.042814473253066</v>
+        <v>7.167632201268385</v>
       </c>
       <c r="E16">
-        <v>7.934538550108253</v>
+        <v>7.988040513950547</v>
       </c>
       <c r="F16">
-        <v>19.54796432261445</v>
+        <v>19.08148982157152</v>
       </c>
       <c r="G16">
-        <v>20.38896918058303</v>
+        <v>19.71157429816972</v>
       </c>
       <c r="H16">
-        <v>6.460121610669336</v>
+        <v>6.458298128175789</v>
       </c>
       <c r="I16">
-        <v>2.604410215412844</v>
+        <v>2.66335008202552</v>
       </c>
       <c r="J16">
-        <v>8.61918651754497</v>
+        <v>8.704599295198417</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.439522486799064</v>
+        <v>10.64994605404896</v>
       </c>
       <c r="M16">
-        <v>13.0155204559144</v>
+        <v>8.09878894069349</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.438746899212814</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.99909215926183</v>
       </c>
       <c r="P16">
-        <v>12.27927434103443</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.76523622893392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.28006601854369</v>
+      </c>
+      <c r="S16">
+        <v>13.41192656140848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.64404871882246</v>
+        <v>14.38729875607047</v>
       </c>
       <c r="C17">
-        <v>8.566418276984621</v>
+        <v>8.814531714173441</v>
       </c>
       <c r="D17">
-        <v>7.244101737488153</v>
+        <v>7.35802244044734</v>
       </c>
       <c r="E17">
-        <v>8.437103717488375</v>
+        <v>8.491789400625533</v>
       </c>
       <c r="F17">
-        <v>19.87964820936615</v>
+        <v>19.45467460878483</v>
       </c>
       <c r="G17">
-        <v>20.73097374234342</v>
+        <v>19.73610324826144</v>
       </c>
       <c r="H17">
-        <v>5.709645906103428</v>
+        <v>5.706450087171469</v>
       </c>
       <c r="I17">
-        <v>2.562402233237964</v>
+        <v>2.627999271447139</v>
       </c>
       <c r="J17">
-        <v>8.703725144391099</v>
+        <v>8.890557061493807</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.574655528989776</v>
+        <v>10.78222283993798</v>
       </c>
       <c r="M17">
-        <v>12.84173608830962</v>
+        <v>8.190091515320702</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.57555456873416</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.84065883385212</v>
       </c>
       <c r="P17">
-        <v>12.30384518406434</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.94209419595906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.28969259236321</v>
+      </c>
+      <c r="S17">
+        <v>13.61540509679335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.60864603705356</v>
+        <v>14.34461652340989</v>
       </c>
       <c r="C18">
-        <v>8.589593853153932</v>
+        <v>8.867268005179303</v>
       </c>
       <c r="D18">
-        <v>7.753615431646259</v>
+        <v>7.867906456266395</v>
       </c>
       <c r="E18">
-        <v>9.546730405305592</v>
+        <v>9.60430657806749</v>
       </c>
       <c r="F18">
-        <v>20.61336343131185</v>
+        <v>20.18291791639734</v>
       </c>
       <c r="G18">
-        <v>21.47970038912366</v>
+        <v>20.3276057369329</v>
       </c>
       <c r="H18">
-        <v>4.428273018108571</v>
+        <v>4.423733248393235</v>
       </c>
       <c r="I18">
-        <v>2.544673118192229</v>
+        <v>2.611405963019342</v>
       </c>
       <c r="J18">
-        <v>8.83832685208818</v>
+        <v>9.060609472567796</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.92229749240505</v>
+        <v>10.94591304222716</v>
       </c>
       <c r="M18">
-        <v>12.82545045305883</v>
+        <v>8.34219427156477</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.922131957810189</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.83153561883559</v>
       </c>
       <c r="P18">
-        <v>12.29529741134379</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.26545936920713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.27099231366966</v>
+      </c>
+      <c r="S18">
+        <v>13.93211042485618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.71314178689938</v>
+        <v>14.42491443245958</v>
       </c>
       <c r="C19">
-        <v>8.723244299302118</v>
+        <v>9.053856204605015</v>
       </c>
       <c r="D19">
-        <v>8.47673564825411</v>
+        <v>8.598018335404907</v>
       </c>
       <c r="E19">
-        <v>11.12894819780554</v>
+        <v>11.18992630585591</v>
       </c>
       <c r="F19">
-        <v>21.58884098373805</v>
+        <v>21.12475459925331</v>
       </c>
       <c r="G19">
-        <v>22.44576354437237</v>
+        <v>21.21043175503183</v>
       </c>
       <c r="H19">
-        <v>3.03021881660773</v>
+        <v>3.037659330916107</v>
       </c>
       <c r="I19">
-        <v>2.559767225364504</v>
+        <v>2.625704208523503</v>
       </c>
       <c r="J19">
-        <v>8.995615598319082</v>
+        <v>9.217243635734853</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.51081532723679</v>
+        <v>11.11250529113219</v>
       </c>
       <c r="M19">
-        <v>12.93933087974655</v>
+        <v>8.518604477483123</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.507801288362384</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.94805579011197</v>
       </c>
       <c r="P19">
-        <v>12.26805023214785</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.66308123344382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.23668850901065</v>
+      </c>
+      <c r="S19">
+        <v>14.30327308177432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.24583226126899</v>
+        <v>14.88947089401436</v>
       </c>
       <c r="C20">
-        <v>9.075173574148044</v>
+        <v>9.515226169632122</v>
       </c>
       <c r="D20">
-        <v>9.720452098764639</v>
+        <v>9.866348991652087</v>
       </c>
       <c r="E20">
-        <v>13.80795268749461</v>
+        <v>13.87656659402098</v>
       </c>
       <c r="F20">
-        <v>23.24349577447769</v>
+        <v>22.667457261044</v>
       </c>
       <c r="G20">
-        <v>24.0690754213594</v>
+        <v>22.95083519899404</v>
       </c>
       <c r="H20">
-        <v>2.021404722823841</v>
+        <v>2.027669389790225</v>
       </c>
       <c r="I20">
-        <v>2.647101846440398</v>
+        <v>2.702490498930252</v>
       </c>
       <c r="J20">
-        <v>9.226808907769794</v>
+        <v>9.335487862982262</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.650669353032846</v>
+        <v>11.28746339136553</v>
       </c>
       <c r="M20">
-        <v>13.40434313471528</v>
+        <v>8.805146733872663</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.640029427555704</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.40435884489946</v>
       </c>
       <c r="P20">
-        <v>12.17799463485511</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.29330112601718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.14445300992273</v>
+      </c>
+      <c r="S20">
+        <v>14.84996524394234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.17939115084028</v>
+        <v>15.70558496505329</v>
       </c>
       <c r="C21">
-        <v>9.488482256073951</v>
+        <v>9.967519056819137</v>
       </c>
       <c r="D21">
-        <v>10.2866829397244</v>
+        <v>10.50494360737673</v>
       </c>
       <c r="E21">
-        <v>14.65019278746832</v>
+        <v>14.74157091637879</v>
       </c>
       <c r="F21">
-        <v>23.91888331269543</v>
+        <v>23.03511497070366</v>
       </c>
       <c r="G21">
-        <v>24.71381886475838</v>
+        <v>25.21915402769174</v>
       </c>
       <c r="H21">
-        <v>2.265911089855668</v>
+        <v>2.255107883449632</v>
       </c>
       <c r="I21">
-        <v>2.806748453629258</v>
+        <v>2.837002843706963</v>
       </c>
       <c r="J21">
-        <v>9.245373592681059</v>
+        <v>8.70821110883753</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.974083682181307</v>
+        <v>11.05901848157878</v>
       </c>
       <c r="M21">
-        <v>14.15098432559087</v>
+        <v>8.851671983283429</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.948125727053647</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.08257006909892</v>
       </c>
       <c r="P21">
-        <v>12.01850184421387</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.45551637789855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.01728913681224</v>
+      </c>
+      <c r="S21">
+        <v>14.78873990682476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.76527915659465</v>
+        <v>16.21669120088841</v>
       </c>
       <c r="C22">
-        <v>9.713646593984231</v>
+        <v>10.20702563605095</v>
       </c>
       <c r="D22">
-        <v>10.58893857624596</v>
+        <v>10.8559964812721</v>
       </c>
       <c r="E22">
-        <v>15.06357866758997</v>
+        <v>15.17101334474133</v>
       </c>
       <c r="F22">
-        <v>24.30910768711804</v>
+        <v>23.21320315840997</v>
       </c>
       <c r="G22">
-        <v>25.10577687534731</v>
+        <v>26.7991323729707</v>
       </c>
       <c r="H22">
-        <v>2.416053742144135</v>
+        <v>2.394468406112724</v>
       </c>
       <c r="I22">
-        <v>2.902747761426695</v>
+        <v>2.915778306046721</v>
       </c>
       <c r="J22">
-        <v>9.255124606181861</v>
+        <v>8.32783700767245</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.126652617354331</v>
+        <v>10.91039844932262</v>
       </c>
       <c r="M22">
-        <v>14.60714366319832</v>
+        <v>8.886680983131825</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.090853596982237</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.49217362846399</v>
       </c>
       <c r="P22">
-        <v>11.91667700653321</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.55320797287507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.9393333194766</v>
+      </c>
+      <c r="S22">
+        <v>14.72891781788241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.47061122080196</v>
+        <v>15.9679043993847</v>
       </c>
       <c r="C23">
-        <v>9.567567690991947</v>
+        <v>10.06108615101776</v>
       </c>
       <c r="D23">
-        <v>10.42381852794763</v>
+        <v>10.65824743779721</v>
       </c>
       <c r="E23">
-        <v>14.84246944170957</v>
+        <v>14.93874391218466</v>
       </c>
       <c r="F23">
-        <v>24.12052720305187</v>
+        <v>23.16473601786858</v>
       </c>
       <c r="G23">
-        <v>24.93054854171113</v>
+        <v>25.7930686289467</v>
       </c>
       <c r="H23">
-        <v>2.33680819573778</v>
+        <v>2.321655021204919</v>
       </c>
       <c r="I23">
-        <v>2.847021810900413</v>
+        <v>2.868505061954496</v>
       </c>
       <c r="J23">
-        <v>9.255601788764272</v>
+        <v>8.587058260299816</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.046309733253434</v>
+        <v>11.0065693042379</v>
       </c>
       <c r="M23">
-        <v>14.36487582338759</v>
+        <v>8.891796107193201</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.016704037566265</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.28190068995992</v>
       </c>
       <c r="P23">
-        <v>11.97013382957828</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.51531980765516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.97761161520051</v>
+      </c>
+      <c r="S23">
+        <v>14.79473274188588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.27405686791249</v>
+        <v>14.91578544487997</v>
       </c>
       <c r="C24">
-        <v>9.042884711593087</v>
+        <v>9.484895999503138</v>
       </c>
       <c r="D24">
-        <v>9.784340573080698</v>
+        <v>9.930492177440287</v>
       </c>
       <c r="E24">
-        <v>13.97859952677475</v>
+        <v>14.04736838421115</v>
       </c>
       <c r="F24">
-        <v>23.37608309192556</v>
+        <v>22.79805866734489</v>
       </c>
       <c r="G24">
-        <v>24.22396676595733</v>
+        <v>23.08747551267896</v>
       </c>
       <c r="H24">
-        <v>2.028571909163378</v>
+        <v>2.034816017578377</v>
       </c>
       <c r="I24">
-        <v>2.639469673158879</v>
+        <v>2.692606692209536</v>
       </c>
       <c r="J24">
-        <v>9.253503691243534</v>
+        <v>9.365469806389054</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.733061990538727</v>
+        <v>11.32553756264365</v>
       </c>
       <c r="M24">
-        <v>13.40874472045302</v>
+        <v>8.845217987140092</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.722261848268348</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.40942633177042</v>
       </c>
       <c r="P24">
-        <v>12.176871102575</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.35934909179842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.14125993716131</v>
+      </c>
+      <c r="S24">
+        <v>14.91388297768967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.86286161573573</v>
+        <v>13.59669843107465</v>
       </c>
       <c r="C25">
-        <v>8.447817010075315</v>
+        <v>8.716634193453352</v>
       </c>
       <c r="D25">
-        <v>9.049484544284645</v>
+        <v>9.172838834690729</v>
       </c>
       <c r="E25">
-        <v>12.9858308198388</v>
+        <v>13.05304740128533</v>
       </c>
       <c r="F25">
-        <v>22.57962492771499</v>
+        <v>22.10948088302063</v>
       </c>
       <c r="G25">
-        <v>23.49128635346542</v>
+        <v>22.32912635486437</v>
       </c>
       <c r="H25">
-        <v>1.680149424924409</v>
+        <v>1.700661355471896</v>
       </c>
       <c r="I25">
-        <v>2.577539569012463</v>
+        <v>2.508474914572419</v>
       </c>
       <c r="J25">
-        <v>9.263082409430666</v>
+        <v>9.42843290556903</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.379390581176389</v>
+        <v>11.59593318842976</v>
       </c>
       <c r="M25">
-        <v>12.29323340289278</v>
+        <v>8.739812390355709</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.378151827545904</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.30327817321964</v>
       </c>
       <c r="P25">
-        <v>12.40625519963405</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.21506646415675</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.34190692736242</v>
+      </c>
+      <c r="S25">
+        <v>14.84348795534022</v>
       </c>
     </row>
   </sheetData>
